--- a/doc/ue_file.xlsx
+++ b/doc/ue_file.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87ADCC9-E739-4757-834C-FA8B98A6A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E717FE-88FF-4D2A-BEAC-BEB938ECFFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="蓝图类接口" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>FArchive* CreateFileWriter( const TCHAR* Filename, uint32 WriteFlags=0 )=0;</t>
   </si>
@@ -345,6 +346,60 @@
       </rPr>
       <t>)：</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件相关操作类：获取各个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的蓝图类：UBlueprintPathsLibrary，只有这个蓝图类在脚本才能获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBlueprintPathsLibrary</t>
+  </si>
+  <si>
+    <t>static bool ShouldSaveToUserDir();</t>
+  </si>
+  <si>
+    <t>static bool HasProjectPersistentDownloadDir();</t>
+  </si>
+  <si>
+    <t>static FString ProjectPersistentDownloadDir();</t>
+  </si>
+  <si>
+    <t>获取下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其里面的Paks就是引擎默认加载的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPakFolders.Add(FString::Printf(TEXT("%sPaks/"), *FPaths::ProjectSavedDir()));</t>
+  </si>
+  <si>
+    <t>../../../../UE/UnrealEngine-4.27.2-release/../../UEProject/MyProject004/Saved/PersistentDownloadDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下载目录创建了PersistentDownloadDir文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FString ProjectSavedDir();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../UE/UnrealEngine-4.27.2-release/../../UEProject/MyProject004/Saved/</t>
+  </si>
+  <si>
+    <t>纯下载目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +488,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1148,4 +1204,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E2171C-163B-42DD-A969-702815B3CCBB}">
+  <dimension ref="B7:U27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_file.xlsx
+++ b/doc/ue_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E717FE-88FF-4D2A-BEAC-BEB938ECFFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5D884-3DA3-481F-B498-B1CBB29D53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>FArchive* CreateFileWriter( const TCHAR* Filename, uint32 WriteFlags=0 )=0;</t>
   </si>
@@ -401,6 +401,9 @@
   <si>
     <t>纯下载目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ue5wiki.com/wiki/20367/</t>
   </si>
 </sst>
 </file>
@@ -1208,35 +1211,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E2171C-163B-42DD-A969-702815B3CCBB}">
-  <dimension ref="B7:U27"/>
+  <dimension ref="B2:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>82</v>
       </c>

--- a/doc/ue_file.xlsx
+++ b/doc/ue_file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5D884-3DA3-481F-B498-B1CBB29D53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6B42E6-2509-4EB4-AD94-D906A140C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="蓝图类接口" sheetId="2" r:id="rId2"/>
+    <sheet name="深坑" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>FArchive* CreateFileWriter( const TCHAR* Filename, uint32 WriteFlags=0 )=0;</t>
   </si>
@@ -404,6 +405,30 @@
   </si>
   <si>
     <t>https://ue5wiki.com/wiki/20367/</t>
+  </si>
+  <si>
+    <t>经常我们会遇到如下问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE里面保存相关信息到文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方库等将文件上传之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE里面无法获取各个平台下的文件绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要自己写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1213,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E2171C-163B-42DD-A969-702815B3CCBB}">
   <dimension ref="B2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1325,4 +1350,63 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83338D3-7393-4106-9506-9CE4BB0DEC98}">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>